--- a/09_Pandas/archivo.xlsx
+++ b/09_Pandas/archivo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,78 +437,151 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>martes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Apellido</t>
+          <t>miércoles</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>jueves</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>viernes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Méndez</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>López</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>María</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tito</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hernández</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,78 +606,151 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>martes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Apellido</t>
+          <t>miércoles</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>jueves</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>viernes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Méndez</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>López</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>María</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tito</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hernández</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
